--- a/pred_ohlcv/54_21/2019-10-27 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8000883.69474198</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7119993.09544198</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>7119993.09544198</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7133295.62554198</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6675713.441846771</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6940748.235846771</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6639792.157846771</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>6804206.187046771</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6804206.187046771</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>7453087.577869525</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>9131231.06974677</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>11001510.07074212</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>9523168.357842119</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9523168.357842119</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>10216994.1533082</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>11185460.4805082</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>20762132.24076438</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>14850887.93972121</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>20219747.17574143</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>20219747.17574143</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>19331619.39194143</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>19331619.39194143</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>21123619.44928066</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>20350542.33525481</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>23319944.91164079</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>23069195.57694079</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>23687456.52190919</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>23687456.52190919</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>25224123.82730919</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>25224123.82730919</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>28953383.66270919</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>25606957.49185996</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>23091592.74038607</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>22619051.31178607</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>20339145.60128607</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>21160803.34058607</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>21160803.34058607</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>19355917.92808607</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>20773472.18328607</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>26568802.75379566</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>26568802.75379566</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>29365692.50699005</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>25118392.79959005</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>28727046.77149005</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>26783732.34209005</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>26783732.34209005</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>26460498.78859005</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>27882076.02279005</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>27105095.0303391</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>27175642.0380391</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>27175642.0380391</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>27435300.8888391</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>28303586.95555995</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>28739111.0948391</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>28175543.58931646</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>28175543.58931646</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>28175543.58931646</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>27147374.31871646</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>27381595.70211646</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>28415618.25081646</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>28415618.25081646</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>29307687.10081646</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>27412817.87261646</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>27982977.21951646</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>28149571.50285932</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>27869375.53315932</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>27869375.53315932</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>25027558.82595932</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>24890580.25995932</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>25230732.02625932</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>25015391.57595932</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>25015391.57595932</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>25015391.57595932</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>23853207.72005932</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>24077310.50735932</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>23984001.45885932</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>24400900.25865932</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>24475155.17325932</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>24475155.17325932</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>24475155.17325932</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>24475155.17325932</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>24475155.17325932</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>24298628.29065932</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>29579341.64184373</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>29579341.64184373</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>28334328.89274373</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>28334328.89274373</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>26039855.99794373</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>26710817.67674373</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>24083126.40334373</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>24828475.37364373</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>24828475.37364373</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>24830786.05654373</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>25597090.24670299</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>27907968.99470299</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>26434290.14575792</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>26434290.14575792</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>26434290.14575792</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>26434290.14575792</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>24145197.81275792</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>24778444.46945792</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>25834401.73550124</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>24341760.36040124</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>23489407.24110124</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>23489407.24110124</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>22937969.84377531</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>22937969.84377531</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>22937969.84377531</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>23408857.99847531</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>23745707.91817531</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>23505628.83903246</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>20962173.18297531</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>21164613.01267532</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>20474080.01217531</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>20303669.97577531</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>20565559.56766564</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>20342439.56666564</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>20354935.12856564</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>20951247.86387532</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>21264303.71381596</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>21264303.71381596</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>19479603.94331596</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>19279487.40861596</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>20046396.45261596</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>20387717.15691596</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>20387717.15691596</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>20628885.98611596</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>20524483.02791596</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>20100457.84161596</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>20100457.84161596</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>19933153.86883818</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>17380142.79153819</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-8310557.891696556</v>
       </c>
       <c r="H1110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-8483430.389045218</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-8483430.389045218</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-8543937.745302496</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-9171487.628302496</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-9011987.750102496</v>
       </c>
       <c r="H1115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-9197418.629802495</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-9160767.554602494</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-9444964.234902494</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-9444964.234902494</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-11322182.82472545</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-12374643.6072984</v>
       </c>
       <c r="H1121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-13153445.03203895</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-13153445.03203895</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-13153445.03203895</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-11818115.0762945</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-13458879.3768945</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-12612866.99791605</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-11496420.6223945</v>
       </c>
       <c r="H1128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-11565830.3867945</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-12564311.0010945</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-12469111.2828376</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-12195051.85933712</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-12648760.68393163</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-11795683.46063163</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-11956658.36173163</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-11956658.36173163</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-11966231.51163163</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-11671819.81071335</v>
       </c>
       <c r="H1164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-12547939.76351335</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-12702543.00961335</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8000883.69474198</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7119993.09544198</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>7119993.09544198</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7133295.62554198</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6675713.441846771</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6940748.235846771</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6639792.157846771</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>6804206.187046771</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>6804206.187046771</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>7453087.577869525</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -912,7 +912,7 @@
         <v>20762132.24076438</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>14850887.93972121</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>20219747.17574143</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>20219747.17574143</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>19331619.39194143</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>19331619.39194143</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>21123619.44928066</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>20350542.33525481</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>23319944.91164079</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>23069195.57694079</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>23687456.52190919</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>23687456.52190919</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>25224123.82730919</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>25224123.82730919</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>28953383.66270919</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>25606957.49185996</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>23091592.74038607</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>22619051.31178607</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>20339145.60128607</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>21160803.34058607</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>21160803.34058607</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>19355917.92808607</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>20773472.18328607</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>28273152.81119566</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>26568802.75379566</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>26568802.75379566</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>29365692.50699005</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>25118392.79959005</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>28727046.77149005</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>26783732.34209005</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>26783732.34209005</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>26460498.78859005</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>27882076.02279005</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>27105095.0303391</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>27175642.0380391</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>27175642.0380391</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>27435300.8888391</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>28303586.95555995</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>28739111.0948391</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>28175543.58931646</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>28175543.58931646</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>28175543.58931646</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>27147374.31871646</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>27381595.70211646</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>28415618.25081646</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>28415618.25081646</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>29307687.10081646</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>27412817.87261646</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>27982977.21951646</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>28149571.50285932</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>27869375.53315932</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>27869375.53315932</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>25027558.82595932</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>24890580.25995932</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>25230732.02625932</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>25015391.57595932</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>25015391.57595932</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>23853207.72005932</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>24077310.50735932</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>29579341.64184373</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>29579341.64184373</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>28334328.89274373</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>28334328.89274373</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>26434290.14575792</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>23489407.24110124</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>22937969.84377531</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>22937969.84377531</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>20565559.56766564</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>20354935.12856564</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>20100457.84161596</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>20100457.84161596</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>19933153.86883818</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>16886776.01283818</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>17380142.79153819</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-7286568.577613669</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-8442151.925613668</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-8442151.925613668</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-8283659.914741327</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-8201813.291441327</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-8524181.707260385</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-8310557.891696556</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-8483430.389045218</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-8483430.389045218</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-8543937.745302496</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-9171487.628302496</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-9011987.750102496</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-9197418.629802495</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-9160767.554602494</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-9444964.234902494</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-9444964.234902494</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-11322182.82472545</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-12374643.6072984</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-13153445.03203895</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-13153445.03203895</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-13153445.03203895</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-11818115.0762945</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-13458879.3768945</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-12612866.99791605</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-11496420.6223945</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-11565830.3867945</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-12564311.0010945</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-12469111.2828376</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-12195051.85933712</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-12648760.68393163</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-11795683.46063163</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-11956658.36173163</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-11956658.36173163</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-11966231.51163163</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-11671819.81071335</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-12547939.76351335</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-13553498.42641335</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-12702543.00961335</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
